--- a/medicine/Mort/North_Burial_Ground/North_Burial_Ground.xlsx
+++ b/medicine/Mort/North_Burial_Ground/North_Burial_Ground.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le North Burial Ground est un cimetière de 45 hectares situé à Providence (Rhode Island), construit en 1700.
 Providence ne possédait aucun lieu de sépulture jusqu'en 1700 (64 ans après sa fondation) du fait que les institutions religieuses et gouvernementales étaient rigoureusement séparées depuis la création de la ville par Roger Williams en 1636. Avant la création de ce cimetière, les gens étaient enterrés dans les terrains familiaux ou les fermes.
@@ -513,7 +525,9 @@
           <t>Personnalités enterrées dans le cimetière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Stephen Hopkins
 Sarah Helen Whitman
